--- a/data/trans_bre/P1417-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Edad-trans_bre.xlsx
@@ -664,21 +664,21 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3847205310306704</v>
+        <v>-0.3845964826375826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2285959977001746</v>
+        <v>0.2289701255384044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2720051040731932</v>
+        <v>-0.07953851565784363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6312373067359286</v>
+        <v>0.6224067586249311</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.643662985563807</v>
+        <v>-0.5333894927389801</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5868710614433764</v>
+        <v>0.58557541579766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.090202844291532</v>
+        <v>2.318673607255057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.475807238805343</v>
+        <v>2.467814561701865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.765583964271536</v>
+        <v>6.255099056006524</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5752520154995979</v>
+        <v>0.5348176619830497</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7923033220939617</v>
+        <v>0.6870590619834612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7044795653055964</v>
+        <v>0.8447267669721981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.130170830661985</v>
+        <v>1.213252440835086</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.580821602245589</v>
+        <v>2.497430962592588</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.151605506341056</v>
+        <v>3.091372822976255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.18087487683256</v>
+        <v>3.243084205852873</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.986833021216198</v>
+        <v>3.987854973696885</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7957288652551692</v>
+        <v>0.7756358364363209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.546153298519227</v>
+        <v>2.467964319425626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8824281808289126</v>
+        <v>0.9527233504217211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.285684137044488</v>
+        <v>2.983620008462245</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>1.623883926212501</v>
+        <v>1.300289086552923</v>
       </c>
     </row>
     <row r="12">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.111739813927049</v>
+        <v>3.016175579092335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.542924159520085</v>
+        <v>5.563916952149609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.343451891569873</v>
+        <v>3.286513539071191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.952236087257637</v>
+        <v>6.554049162764795</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>22.79814966342503</v>
+        <v>15.60298463047859</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +913,7 @@
         <v>3.648445817975555</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>9.796735220060492</v>
+        <v>9.796735220060494</v>
       </c>
     </row>
     <row r="14">
@@ -924,28 +924,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03218546761831177</v>
+        <v>0.03756368453648571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8408893788232714</v>
+        <v>0.8657015142886243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5442138238078023</v>
+        <v>0.6222388180075797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.825418179237822</v>
+        <v>3.858984516010126</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5414938979684201</v>
+        <v>-0.4613515014085515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.370413112774369</v>
+        <v>0.4157664459343537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2048650429425663</v>
+        <v>0.1504444035217033</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2.933052028335863</v>
+        <v>3.376997866828637</v>
       </c>
     </row>
     <row r="15">
@@ -956,26 +956,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.174457347819031</v>
+        <v>2.100751387649649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.852165465220103</v>
+        <v>3.821397112068551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.194810483246439</v>
+        <v>3.26296412240031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.685269133170392</v>
+        <v>6.834073405729094</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>19.06703718492477</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>17.27779483220899</v>
-      </c>
+        <v>21.07854534697945</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>49.87294398533064</v>
+        <v>45.30871504006443</v>
       </c>
     </row>
     <row r="16">
@@ -999,7 +997,7 @@
         <v>2.121062340015432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.091975639232982</v>
+        <v>1.091975639232981</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1013,7 +1011,7 @@
         <v>4.752981223032552</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6825764478921563</v>
+        <v>0.6825764478921558</v>
       </c>
     </row>
     <row r="17">
@@ -1024,26 +1022,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.014064326918593</v>
+        <v>1.046161361803772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7031701458639752</v>
+        <v>0.7310902463274762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7019918749589302</v>
+        <v>0.6476428335257592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.245649598169056</v>
+        <v>-0.1709694933583872</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.05588651275480708</v>
+        <v>0.2395400900419623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1495052057649723</v>
+        <v>-0.2312830745235413</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1316100166094901</v>
+        <v>-0.104940344903355</v>
       </c>
     </row>
     <row r="18">
@@ -1054,22 +1052,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.217169679574844</v>
+        <v>4.080169832483262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.961183590726455</v>
+        <v>4.126231379600318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.105593762888367</v>
+        <v>4.268042448561104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.481095717069758</v>
+        <v>2.487433915264065</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>2.574880454084938</v>
+        <v>2.906006838686188</v>
       </c>
     </row>
     <row r="19">
@@ -1093,7 +1091,7 @@
         <v>1.506977511220615</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4741220736491633</v>
+        <v>0.4741220736491629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2857673355873336</v>
@@ -1105,7 +1103,7 @@
         <v>1.016054689243699</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1740523934857</v>
+        <v>0.1740523934856999</v>
       </c>
     </row>
     <row r="20">
@@ -1116,28 +1114,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.924792549801398</v>
+        <v>-1.756612084153874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.27902963489499</v>
+        <v>-1.359231264763962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.5781251749199465</v>
+        <v>-0.6915009046545201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.214037245046885</v>
+        <v>-1.367329348884386</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8359542215450816</v>
+        <v>-0.7176663395692118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4675829314038974</v>
+        <v>-0.4992660639935206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3260688745774546</v>
+        <v>-0.4287598904626608</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3370523822044133</v>
+        <v>-0.3694082911247933</v>
       </c>
     </row>
     <row r="21">
@@ -1148,28 +1146,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.315189596356052</v>
+        <v>2.432939607372129</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.70707489465086</v>
+        <v>3.488001289287965</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.675667167379526</v>
+        <v>3.947722966651642</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.310651181931307</v>
+        <v>2.192165368105116</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.282822402214117</v>
+        <v>5.646504318111768</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.244803923828731</v>
+        <v>3.668894172485658</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.856619408475815</v>
+        <v>6.336232349542434</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.378171641668249</v>
+        <v>1.243959521975122</v>
       </c>
     </row>
     <row r="22">
@@ -1193,7 +1191,7 @@
         <v>2.750024943939191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.137015560566768</v>
+        <v>4.137015560566767</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.766222069234096</v>
@@ -1205,7 +1203,7 @@
         <v>1.655353009537843</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.9443684819672851</v>
+        <v>0.9443684819672847</v>
       </c>
     </row>
     <row r="23">
@@ -1216,28 +1214,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.404261741445388</v>
+        <v>-1.761239001942355</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9840304931208008</v>
+        <v>0.8393947287494452</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2703779148197033</v>
+        <v>0.2443698978431901</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.306369683723958</v>
+        <v>1.348021326409733</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4661165369120511</v>
+        <v>-0.5443427598833614</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06004733804840003</v>
+        <v>-0.1073333451679287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.07412911909584838</v>
+        <v>-0.03083243228753565</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.168584427059957</v>
+        <v>0.1954529649242091</v>
       </c>
     </row>
     <row r="24">
@@ -1248,26 +1246,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.405519594651562</v>
+        <v>4.729563246178052</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.549455411417928</v>
+        <v>5.872021680513181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.531711408435147</v>
+        <v>5.404928288661703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.909283589888807</v>
+        <v>6.764109064324483</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6.542175617197578</v>
+        <v>5.86113873130856</v>
       </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>6.996438874172703</v>
+        <v>9.300531072979268</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.140456815947268</v>
+        <v>2.222728791534739</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1289,7 @@
         <v>1.888347642645156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.278252453610689</v>
+        <v>3.278252453610688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>3.148128375916508</v>
@@ -1314,28 +1312,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8119718114070827</v>
+        <v>0.8405821556961707</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.735864528242174</v>
+        <v>1.694770998102368</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.375393301226235</v>
+        <v>1.310527413469721</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.540551168639907</v>
+        <v>2.662635283996269</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.180677324601156</v>
+        <v>1.15336121304535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.600635867390532</v>
+        <v>2.776911976092682</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.72601520016717</v>
+        <v>1.695958257402687</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.657798836135069</v>
+        <v>1.729301931177508</v>
       </c>
     </row>
     <row r="27">
@@ -1346,28 +1344,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.867052760272104</v>
+        <v>1.809896593570369</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.924141201119448</v>
+        <v>2.919269294735913</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.521076585986389</v>
+        <v>2.490446876032134</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.919413257231953</v>
+        <v>3.975249397797525</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.390043603253314</v>
+        <v>6.83957813070254</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.922545059143879</v>
+        <v>10.33972202514897</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6.532053525683754</v>
+        <v>6.43470798260547</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.929201962107613</v>
+        <v>3.899330030885322</v>
       </c>
     </row>
     <row r="28">
